--- a/faltantes.xlsx
+++ b/faltantes.xlsx
@@ -365,1883 +365,4083 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1991</v>
+        <v>1973</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>33.5176700684284</v>
+        <v>20.9556540102522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1991</v>
+        <v>1973</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>34.4323754524614</v>
+        <v>20.694852499836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1991</v>
+        <v>1973</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>34.262707455944</v>
+        <v>22.2623643850684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1991</v>
+        <v>1973</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>33.2911754358011</v>
+        <v>22.9619922919599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6212303032553</v>
+        <v>25.2143936823927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>30.3197527392628</v>
+        <v>26.4122494333598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>28.735102222684</v>
+        <v>26.0687886780014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7357658183452</v>
+        <v>25.3492024869141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>29.1976302532745</v>
+        <v>23.9291223801391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>29.641080753193</v>
+        <v>22.0369059974131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7445316644154</v>
+        <v>20.5658229298932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>31.782023130098</v>
+        <v>20.8697690292831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1974</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>33.8192569560254</v>
+        <v>21.0966222380208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1992</v>
+        <v>1974</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1117110341925</v>
+        <v>21.5790623543012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1992</v>
+        <v>1974</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4041651123595</v>
+        <v>22.6886499971881</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1992</v>
+        <v>1974</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>33.3003082452311</v>
+        <v>24.1053011704169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>30.0936640625415</v>
+        <v>25.3312040144203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>28.6035892875104</v>
+        <v>26.4395422380948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>28.8205451548016</v>
+        <v>26.6501066558436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>29.9808227021339</v>
+        <v>25.7360356336032</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>31.2726131846397</v>
+        <v>23.3775386381103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>32.2159348646806</v>
+        <v>21.5316066762681</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>33.9702533777769</v>
+        <v>20.4897909142627</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>34.545622768775</v>
+        <v>20.9533093460155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>35.0645714795693</v>
+        <v>20.7804505036103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>34.2631134118499</v>
+        <v>21.6343165372498</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>32.3291821809943</v>
+        <v>21.4718618360084</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>30.263738014965</v>
+        <v>22.8963063042769</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>29.2357853146183</v>
+        <v>25.8812057589424</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>29.2453240799542</v>
+        <v>26.9050653261042</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>30.1981845253311</v>
+        <v>27.4856776007456</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>31.0564692291603</v>
+        <v>26.4006586415831</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>33.9611205683469</v>
+        <v>25.0125077770683</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>34.7256414424404</v>
+        <v>23.8401510097843</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>34.4991468098131</v>
+        <v>22.5027440747444</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>33.621784575312</v>
+        <v>22.7409118781728</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>32.4897173680817</v>
+        <v>22.5563080943499</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>29.7738115560845</v>
+        <v>22.5050878579155</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>28.4247884815629</v>
+        <v>23.9011169284947</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>28.7267813250659</v>
+        <v>25.7201385325722</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="B42" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>30.5188489436001</v>
+        <v>27.4173228884365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>30.8772624673069</v>
+        <v>27.6711446698502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>32.4615070279798</v>
+        <v>27.5275556562105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>33.4521165787945</v>
+        <v>26.372674811874</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>35.0272283300374</v>
+        <v>24.4800392982072</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>35.0745162008112</v>
+        <v>22.8138149136823</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>34.8106784186521</v>
+        <v>21.7909640392677</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>34.6497372756587</v>
+        <v>21.1735383192847</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>32.084421929507</v>
+        <v>21.8836202634864</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>31.0751408039263</v>
+        <v>22.3687099062442</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>29.6601582838649</v>
+        <v>23.1681711070353</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
-        <v>29.9526123620319</v>
+        <v>25.2146263666048</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>30.3682584777545</v>
+        <v>26.2344615209583</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>31.150639014802</v>
+        <v>27.8100367117447</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>32.4523742185498</v>
+        <v>26.8273409445654</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="B57" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>32.8958247184683</v>
+        <v>25.701628408239</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>33.8296076331733</v>
+        <v>23.8472160576704</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C59" t="n">
-        <v>35.1786307076949</v>
+        <v>21.710850688128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v>34.9803464151695</v>
+        <v>21.5674489117791</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v>33.4521165787945</v>
+        <v>21.9067899078741</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>32.6407137898332</v>
+        <v>21.8565109777297</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
-        <v>29.943073596696</v>
+        <v>23.8325429181189</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>28.5002866924386</v>
+        <v>24.8862782758747</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>28.9532759576931</v>
+        <v>26.7068271575491</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>30.6603066000156</v>
+        <v>27.2316803803934</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>30.8585908925409</v>
+        <v>27.7911653861207</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="B68" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>31.1037570999341</v>
+        <v>26.0008860074985</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>33.2542382421751</v>
+        <v>23.7304473128414</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
-        <v>33.7918585277354</v>
+        <v>21.9691889776185</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>35.168685986453</v>
+        <v>21.6196001793173</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>35.763132908123</v>
+        <v>22.4322809169014</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>34.3576891533976</v>
+        <v>22.9918903116109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>34.3954382588354</v>
+        <v>22.5425618033658</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C75" t="n">
-        <v>32.4241638784479</v>
+        <v>22.8644445336356</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>32.2354183512585</v>
+        <v>24.8508269991715</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>32.2731674566964</v>
+        <v>26.5079284888853</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>33.1787400312994</v>
+        <v>27.2335527211964</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>32.8385921264526</v>
+        <v>27.3461499416861</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="B80" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>33.4703821976545</v>
+        <v>26.897071055294</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>34.5742390647829</v>
+        <v>24.551715271478</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
-        <v>33.5272088337643</v>
+        <v>22.8994132083098</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>34.0175412485508</v>
+        <v>22.0806942558916</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>33.630917384742</v>
+        <v>21.4366748736019</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>33.3007142011371</v>
+        <v>21.7867239086919</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>31.3858605009533</v>
+        <v>22.8691966035016</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>30.4238672461465</v>
+        <v>23.3749758052172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>29.4241248859017</v>
+        <v>24.5932488930832</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>28.9429252805453</v>
+        <v>25.5796996290689</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C90" t="n">
-        <v>29.1412095730706</v>
+        <v>23.0537695872841</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>29.1129992329687</v>
+        <v>24.732550348387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>30.1504906986513</v>
+        <v>25.8217359606032</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="B93" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>30.9901038277146</v>
+        <v>26.6494151984785</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>32.6689241299351</v>
+        <v>26.0534613709321</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>33.2820426263711</v>
+        <v>25.0990190272565</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>33.603113000546</v>
+        <v>24.0521827325755</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>32.4519682626438</v>
+        <v>22.7355090800346</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>30.3388302699347</v>
+        <v>22.5617147246299</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>28.5845117568385</v>
+        <v>22.2713969803758</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>27.2358946382228</v>
+        <v>22.9547992762666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>27.5001383762879</v>
+        <v>24.6528720793041</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C102" t="n">
-        <v>28.5658401820725</v>
+        <v>26.4980076675234</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="B103" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>29.5187006274494</v>
+        <v>28.2087526177456</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="B104" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>31.168904633662</v>
+        <v>28.3342177819207</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>31.8293110008719</v>
+        <v>28.9370919382685</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>32.8954187625624</v>
+        <v>28.5304321116205</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>33.4293656265553</v>
+        <v>28.0923672762815</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>33.7418510719794</v>
+        <v>27.9250071819304</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>33.1359292469516</v>
+        <v>26.9585836066985</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>31.1398378224749</v>
+        <v>23.3848168573897</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C111" t="n">
-        <v>30.0556063666976</v>
+        <v>22.9361737963524</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>27.2894334103605</v>
+        <v>23.1799139155128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>28.4767847913611</v>
+        <v>23.8827614694285</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B114" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
-        <v>29.5933667086148</v>
+        <v>25.4489243152147</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2000</v>
+        <v>1984</v>
       </c>
       <c r="B115" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>29.8316122853376</v>
+        <v>26.0146784237087</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2000</v>
+        <v>1984</v>
       </c>
       <c r="B116" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>30.5937382206169</v>
+        <v>27.2773364839348</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2000</v>
+        <v>1984</v>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>31.6467166671218</v>
+        <v>26.453755828277</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C118" t="n">
-        <v>33.5558251297722</v>
+        <v>25.579869940982</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>34.4423201737033</v>
+        <v>23.1530264383555</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C120" t="n">
-        <v>34.1876152009742</v>
+        <v>22.0077548719724</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>32.8954187625624</v>
+        <v>21.1915278194884</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
-        <v>31.6405654736825</v>
+        <v>20.5761611506719</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>28.0194930429882</v>
+        <v>21.5821543566799</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C124" t="n">
-        <v>28.1132568727239</v>
+        <v>22.7461960549911</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B125" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>28.0190870870822</v>
+        <v>22.4722383887142</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="B126" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C126" t="n">
-        <v>28.6699546889561</v>
+        <v>25.1831879230431</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2001</v>
+        <v>1985</v>
       </c>
       <c r="B127" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>29.8107487497105</v>
+        <v>25.5229206501499</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2001</v>
+        <v>1985</v>
       </c>
       <c r="B128" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>30.6881109842116</v>
+        <v>26.9587780379833</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2001</v>
+        <v>1985</v>
       </c>
       <c r="B129" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>32.7535551502409</v>
+        <v>26.9916527889921</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>33.693832586245</v>
+        <v>24.8944145692138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>34.9192722540956</v>
+        <v>21.7714601016166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>35.2815273468606</v>
+        <v>21.3954795251804</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C133" t="n">
-        <v>34.0552903539886</v>
+        <v>20.3319786644718</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>32.8225589171371</v>
+        <v>20.741770311636</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B135" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>29.8549923506743</v>
+        <v>21.5925336288755</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B136" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C136" t="n">
-        <v>28.3300098007221</v>
+        <v>22.2047854606238</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B137" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>28.4765412487453</v>
+        <v>22.7235005080906</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B138" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>29.7135346942587</v>
+        <v>24.8576853663276</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="B139" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>30.0979260969766</v>
+        <v>26.8530584691705</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="B140" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>31.0749378259733</v>
+        <v>27.4273557221211</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="B141" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>33.0297730797992</v>
+        <v>25.8831868166744</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>33.9316925151663</v>
+        <v>23.2658447563586</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>34.8383813138716</v>
+        <v>20.9334837224411</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>34.8289440375121</v>
+        <v>20.6160984361097</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>34.0585376017516</v>
+        <v>21.8743886772504</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C146" t="n">
-        <v>31.8899937155108</v>
+        <v>21.947941537851</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B147" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C147" t="n">
-        <v>30.0500293954366</v>
+        <v>22.3348523122833</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B148" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C148" t="n">
-        <v>29.1588664513707</v>
+        <v>23.8849670878397</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="B149" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C149" t="n">
-        <v>29.2020952270027</v>
+        <v>25.6191793532514</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="B150" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>28.5944564780803</v>
+        <v>27.5827084480345</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="B151" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>30.3962658012437</v>
+        <v>28.6385834892302</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="B152" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>30.6661921616826</v>
+        <v>28.7822724087374</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="B153" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C153" t="n">
-        <v>33.0058246968128</v>
+        <v>27.6934516327781</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>34.266969490379</v>
+        <v>24.5602362081483</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C155" t="n">
-        <v>35.6742118084317</v>
+        <v>23.3810593152263</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>35.5743873809336</v>
+        <v>22.9505660173491</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>34.1999952581671</v>
+        <v>22.3191558231351</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C158" t="n">
-        <v>32.2201968217961</v>
+        <v>22.8989847393876</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B159" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C159" t="n">
-        <v>29.9992912989469</v>
+        <v>23.2820716226362</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C160" t="n">
-        <v>28.811818223958</v>
+        <v>24.3114447886014</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B161" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C161" t="n">
-        <v>29.2751580117211</v>
+        <v>25.4595641069774</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="B162" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>29.9055274692111</v>
+        <v>26.4231740300125</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="B163" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>30.8169856312544</v>
+        <v>27.938934350816</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="B164" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>31.2856021756916</v>
+        <v>26.2967534318054</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="B165" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C165" t="n">
-        <v>33.1700130231361</v>
+        <v>25.9388938935887</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2005</v>
+        <v>1988</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>34.5228921761868</v>
+        <v>23.8390824687709</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2017</v>
+        <v>1988</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C167" t="n">
-        <v>35.6117305304655</v>
+        <v>21.1217744607458</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2017</v>
+        <v>1988</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C168" t="n">
-        <v>35.762726952217</v>
+        <v>20.2365766066674</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2017</v>
+        <v>1988</v>
       </c>
       <c r="B169" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C169" t="n">
-        <v>35.6304021052315</v>
+        <v>20.6093011995921</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2017</v>
+        <v>1988</v>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C170" t="n">
-        <v>33.329330497145</v>
+        <v>21.1466822885194</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2017</v>
+        <v>1988</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C171" t="n">
-        <v>32.9236291026643</v>
+        <v>21.8665047136133</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2018</v>
+        <v>1988</v>
       </c>
       <c r="B172" t="n">
+        <v>11</v>
+      </c>
+      <c r="C172" t="n">
+        <v>23.2981233702281</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12</v>
+      </c>
+      <c r="C173" t="n">
+        <v>24.7397973900264</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>26.5605139472076</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.5616149936488</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.5538022312323</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>22.2369881901684</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21.9301918724697</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>20.7603564733514</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>21.2687219805022</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B181" t="n">
         <v>9</v>
       </c>
-      <c r="C172" t="n">
-        <v>30.1886457599951</v>
+      <c r="C181" t="n">
+        <v>21.7621962508668</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B182" t="n">
+        <v>10</v>
+      </c>
+      <c r="C182" t="n">
+        <v>22.8047949204081</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22.8434240885408</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12</v>
+      </c>
+      <c r="C184" t="n">
+        <v>23.9512443723718</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>25.9964744049849</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>26.7475493239329</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>26.7970087205278</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>24.4951299919622</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>22.7170770596988</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B190" t="n">
+        <v>7</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.2105780739509</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21.2269778205146</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21.4382578712431</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B193" t="n">
+        <v>10</v>
+      </c>
+      <c r="C193" t="n">
+        <v>22.0146195937253</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11</v>
+      </c>
+      <c r="C194" t="n">
+        <v>23.0711861162277</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12</v>
+      </c>
+      <c r="C195" t="n">
+        <v>24.7302807078026</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>26.2678953336936</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>27.5144469351522</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>27.643561339698</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>25.8021743417592</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>24.6648572552592</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>22.8261673786078</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7</v>
+      </c>
+      <c r="C202" t="n">
+        <v>21.4896450773054</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8</v>
+      </c>
+      <c r="C203" t="n">
+        <v>21.421555553561</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B204" t="n">
+        <v>9</v>
+      </c>
+      <c r="C204" t="n">
+        <v>22.0773444264772</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B205" t="n">
+        <v>10</v>
+      </c>
+      <c r="C205" t="n">
+        <v>22.6151048314922</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11</v>
+      </c>
+      <c r="C206" t="n">
+        <v>23.2543013232141</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B207" t="n">
+        <v>12</v>
+      </c>
+      <c r="C207" t="n">
+        <v>25.6951710573604</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>27.1324348506779</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>27.9551825112816</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>28.6370160235525</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>27.6643314060324</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5</v>
+      </c>
+      <c r="C212" t="n">
+        <v>26.6391210524732</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6</v>
+      </c>
+      <c r="C213" t="n">
+        <v>23.4977241907066</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7</v>
+      </c>
+      <c r="C214" t="n">
+        <v>21.3116061400436</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>21.9001784309125</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B216" t="n">
+        <v>10</v>
+      </c>
+      <c r="C216" t="n">
+        <v>23.2858011015212</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11</v>
+      </c>
+      <c r="C217" t="n">
+        <v>23.8179284156639</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>26.7760905119125</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>28.1830597903243</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>26.990136446528</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>25.1398344149399</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>26.6596064480526</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>27.6663938825899</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3</v>
+      </c>
+      <c r="C224" t="n">
+        <v>26.7751610507412</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4</v>
+      </c>
+      <c r="C225" t="n">
+        <v>25.6793358965838</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5</v>
+      </c>
+      <c r="C226" t="n">
+        <v>23.7810880720345</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6</v>
+      </c>
+      <c r="C227" t="n">
+        <v>21.9367455593767</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7</v>
+      </c>
+      <c r="C228" t="n">
+        <v>20.6565101728175</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8</v>
+      </c>
+      <c r="C229" t="n">
+        <v>21.0639359930521</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B230" t="n">
+        <v>9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>22.2276374689463</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B231" t="n">
+        <v>10</v>
+      </c>
+      <c r="C231" t="n">
+        <v>22.6597750975019</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B232" t="n">
+        <v>11</v>
+      </c>
+      <c r="C232" t="n">
+        <v>23.721581435436</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B233" t="n">
+        <v>12</v>
+      </c>
+      <c r="C233" t="n">
+        <v>25.8150738952398</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>27.62180597819</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>27.8815429155687</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3</v>
+      </c>
+      <c r="C236" t="n">
+        <v>27.2626018177848</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
+      <c r="C237" t="n">
+        <v>25.4228338120998</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>23.8124251244716</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6</v>
+      </c>
+      <c r="C239" t="n">
+        <v>22.702771491458</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B240" t="n">
+        <v>7</v>
+      </c>
+      <c r="C240" t="n">
+        <v>21.7881237100324</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B241" t="n">
+        <v>8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>21.5220298720531</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B242" t="n">
+        <v>9</v>
+      </c>
+      <c r="C242" t="n">
+        <v>22.1898425655598</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B243" t="n">
+        <v>10</v>
+      </c>
+      <c r="C243" t="n">
+        <v>22.6025489668863</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B244" t="n">
+        <v>11</v>
+      </c>
+      <c r="C244" t="n">
+        <v>23.8321332204116</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12</v>
+      </c>
+      <c r="C245" t="n">
+        <v>24.2702434563849</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>25.9459961165193</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>27.3775893653217</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>27.1455016000088</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4</v>
+      </c>
+      <c r="C249" t="n">
+        <v>24.8135834263969</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>23.2017680657557</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B251" t="n">
+        <v>6</v>
+      </c>
+      <c r="C251" t="n">
+        <v>21.4262693887137</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B252" t="n">
+        <v>7</v>
+      </c>
+      <c r="C252" t="n">
+        <v>20.2767212412951</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8</v>
+      </c>
+      <c r="C253" t="n">
+        <v>20.8689370811697</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B254" t="n">
+        <v>9</v>
+      </c>
+      <c r="C254" t="n">
+        <v>21.5613031689399</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B255" t="n">
+        <v>10</v>
+      </c>
+      <c r="C255" t="n">
+        <v>22.320944531993</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B256" t="n">
+        <v>11</v>
+      </c>
+      <c r="C256" t="n">
+        <v>22.621841008821</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B257" t="n">
+        <v>12</v>
+      </c>
+      <c r="C257" t="n">
+        <v>24.5449362516879</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>25.6768461551075</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3</v>
+      </c>
+      <c r="C259" t="n">
+        <v>28.0867022984879</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4</v>
+      </c>
+      <c r="C260" t="n">
+        <v>26.8004003769726</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>27.0997458825566</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6</v>
+      </c>
+      <c r="C262" t="n">
+        <v>26.0142230651211</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B263" t="n">
+        <v>7</v>
+      </c>
+      <c r="C263" t="n">
+        <v>25.2154452517345</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B264" t="n">
+        <v>8</v>
+      </c>
+      <c r="C264" t="n">
+        <v>25.1166998381743</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9</v>
+      </c>
+      <c r="C265" t="n">
+        <v>26.1114700093688</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B266" t="n">
+        <v>10</v>
+      </c>
+      <c r="C266" t="n">
+        <v>25.4105494838436</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B267" t="n">
+        <v>11</v>
+      </c>
+      <c r="C267" t="n">
+        <v>26.7256165199345</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B268" t="n">
+        <v>12</v>
+      </c>
+      <c r="C268" t="n">
+        <v>27.9150498284661</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>27.9900198141608</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+      <c r="C270" t="n">
+        <v>28.2644527076847</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3</v>
+      </c>
+      <c r="C271" t="n">
+        <v>28.0108470412102</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4</v>
+      </c>
+      <c r="C272" t="n">
+        <v>27.288179716545</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>25.3053746380966</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B274" t="n">
+        <v>6</v>
+      </c>
+      <c r="C274" t="n">
+        <v>23.6004770608376</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B275" t="n">
+        <v>7</v>
+      </c>
+      <c r="C275" t="n">
+        <v>22.2071095982839</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B276" t="n">
+        <v>8</v>
+      </c>
+      <c r="C276" t="n">
+        <v>20.7169483661014</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B277" t="n">
+        <v>9</v>
+      </c>
+      <c r="C277" t="n">
+        <v>21.269773196054</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B278" t="n">
+        <v>10</v>
+      </c>
+      <c r="C278" t="n">
+        <v>22.3538908304746</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B279" t="n">
+        <v>11</v>
+      </c>
+      <c r="C279" t="n">
+        <v>22.7763799853564</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B280" t="n">
+        <v>12</v>
+      </c>
+      <c r="C280" t="n">
+        <v>23.1901169141017</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>25.4557202250197</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+      <c r="C282" t="n">
+        <v>26.6052032117462</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3</v>
+      </c>
+      <c r="C283" t="n">
+        <v>27.2128358695807</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B284" t="n">
+        <v>4</v>
+      </c>
+      <c r="C284" t="n">
+        <v>25.5800432056724</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>22.9104818244859</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B286" t="n">
+        <v>6</v>
+      </c>
+      <c r="C286" t="n">
+        <v>21.5961227284106</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B287" t="n">
+        <v>7</v>
+      </c>
+      <c r="C287" t="n">
+        <v>20.7085353520475</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B288" t="n">
+        <v>8</v>
+      </c>
+      <c r="C288" t="n">
+        <v>20.8010022209839</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B289" t="n">
+        <v>9</v>
+      </c>
+      <c r="C289" t="n">
+        <v>21.1888198821298</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B290" t="n">
+        <v>10</v>
+      </c>
+      <c r="C290" t="n">
+        <v>22.0876683017974</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B291" t="n">
+        <v>11</v>
+      </c>
+      <c r="C291" t="n">
+        <v>22.6850702305238</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B292" t="n">
+        <v>12</v>
+      </c>
+      <c r="C292" t="n">
+        <v>24.1256279222999</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>25.7474224403461</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+      <c r="C294" t="n">
+        <v>27.1900009986683</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3</v>
+      </c>
+      <c r="C295" t="n">
+        <v>27.1081836448298</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B296" t="n">
+        <v>4</v>
+      </c>
+      <c r="C296" t="n">
+        <v>26.2609745551183</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5</v>
+      </c>
+      <c r="C297" t="n">
+        <v>23.734753909798</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B298" t="n">
+        <v>6</v>
+      </c>
+      <c r="C298" t="n">
+        <v>21.9233507116994</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B299" t="n">
+        <v>7</v>
+      </c>
+      <c r="C299" t="n">
+        <v>20.6329050228485</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B300" t="n">
+        <v>8</v>
+      </c>
+      <c r="C300" t="n">
+        <v>21.8112323139372</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B301" t="n">
+        <v>9</v>
+      </c>
+      <c r="C301" t="n">
+        <v>22.1279726754941</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B302" t="n">
+        <v>10</v>
+      </c>
+      <c r="C302" t="n">
+        <v>22.5244721877146</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B303" t="n">
+        <v>11</v>
+      </c>
+      <c r="C303" t="n">
+        <v>21.9765929586352</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B304" t="n">
+        <v>12</v>
+      </c>
+      <c r="C304" t="n">
+        <v>24.7199788694432</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>26.3655735125387</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+      <c r="C306" t="n">
+        <v>27.7820876110528</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3</v>
+      </c>
+      <c r="C307" t="n">
+        <v>27.2432889771473</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4</v>
+      </c>
+      <c r="C308" t="n">
+        <v>26.2215328462316</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5</v>
+      </c>
+      <c r="C309" t="n">
+        <v>23.1049867926938</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B310" t="n">
+        <v>6</v>
+      </c>
+      <c r="C310" t="n">
+        <v>21.0809465288624</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B311" t="n">
+        <v>7</v>
+      </c>
+      <c r="C311" t="n">
+        <v>21.4636714980171</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B312" t="n">
+        <v>8</v>
+      </c>
+      <c r="C312" t="n">
+        <v>21.1845251983322</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B313" t="n">
+        <v>9</v>
+      </c>
+      <c r="C313" t="n">
+        <v>20.9243980298934</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B314" t="n">
+        <v>10</v>
+      </c>
+      <c r="C314" t="n">
+        <v>21.1059037544059</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B315" t="n">
+        <v>11</v>
+      </c>
+      <c r="C315" t="n">
+        <v>22.2637264058414</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B316" t="n">
+        <v>12</v>
+      </c>
+      <c r="C316" t="n">
+        <v>23.9399441860693</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>25.3798767040131</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+      <c r="C318" t="n">
+        <v>27.6223258437049</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3</v>
+      </c>
+      <c r="C319" t="n">
+        <v>28.7549495161545</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B320" t="n">
+        <v>4</v>
+      </c>
+      <c r="C320" t="n">
+        <v>26.9267527313498</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B321" t="n">
+        <v>5</v>
+      </c>
+      <c r="C321" t="n">
+        <v>25.182259737549</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B322" t="n">
+        <v>6</v>
+      </c>
+      <c r="C322" t="n">
+        <v>22.3863002084408</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B323" t="n">
+        <v>7</v>
+      </c>
+      <c r="C323" t="n">
+        <v>21.6832556910843</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B324" t="n">
+        <v>8</v>
+      </c>
+      <c r="C324" t="n">
+        <v>21.8933128434046</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B325" t="n">
+        <v>9</v>
+      </c>
+      <c r="C325" t="n">
+        <v>21.8441825619352</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B326" t="n">
+        <v>10</v>
+      </c>
+      <c r="C326" t="n">
+        <v>23.1774830798779</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B327" t="n">
+        <v>11</v>
+      </c>
+      <c r="C327" t="n">
+        <v>23.7507674669074</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B328" t="n">
+        <v>12</v>
+      </c>
+      <c r="C328" t="n">
+        <v>25.341873708146</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>27.0305696316926</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>28.0849452848406</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3</v>
+      </c>
+      <c r="C331" t="n">
+        <v>27.293487789423</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B332" t="n">
+        <v>4</v>
+      </c>
+      <c r="C332" t="n">
+        <v>25.7557383495631</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B333" t="n">
+        <v>5</v>
+      </c>
+      <c r="C333" t="n">
+        <v>23.8363058725638</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B334" t="n">
+        <v>6</v>
+      </c>
+      <c r="C334" t="n">
+        <v>22.4670225730934</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B335" t="n">
+        <v>7</v>
+      </c>
+      <c r="C335" t="n">
+        <v>21.6547589678825</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B336" t="n">
+        <v>8</v>
+      </c>
+      <c r="C336" t="n">
+        <v>21.6620359114849</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B337" t="n">
+        <v>9</v>
+      </c>
+      <c r="C337" t="n">
+        <v>21.6408810691481</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B338" t="n">
+        <v>10</v>
+      </c>
+      <c r="C338" t="n">
+        <v>22.6874763060452</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B339" t="n">
+        <v>11</v>
+      </c>
+      <c r="C339" t="n">
+        <v>23.2574149730528</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B340" t="n">
+        <v>12</v>
+      </c>
+      <c r="C340" t="n">
+        <v>25.2225506417634</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+      <c r="C341" t="n">
+        <v>26.5551245011981</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+      <c r="C342" t="n">
+        <v>28.3449483229934</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3</v>
+      </c>
+      <c r="C343" t="n">
+        <v>28.2040755119975</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B344" t="n">
+        <v>4</v>
+      </c>
+      <c r="C344" t="n">
+        <v>26.3299945401685</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B345" t="n">
+        <v>5</v>
+      </c>
+      <c r="C345" t="n">
+        <v>23.5189498656604</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B346" t="n">
+        <v>6</v>
+      </c>
+      <c r="C346" t="n">
+        <v>21.8357630895263</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B347" t="n">
+        <v>7</v>
+      </c>
+      <c r="C347" t="n">
+        <v>21.833575254111</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B348" t="n">
+        <v>8</v>
+      </c>
+      <c r="C348" t="n">
+        <v>21.22768107793</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B349" t="n">
+        <v>9</v>
+      </c>
+      <c r="C349" t="n">
+        <v>22.4542375791733</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B350" t="n">
+        <v>10</v>
+      </c>
+      <c r="C350" t="n">
+        <v>23.495638530542</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B351" t="n">
+        <v>11</v>
+      </c>
+      <c r="C351" t="n">
+        <v>23.595285500177</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B352" t="n">
+        <v>12</v>
+      </c>
+      <c r="C352" t="n">
+        <v>25.109876628796</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+      <c r="C353" t="n">
+        <v>27.0737996028417</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B354" t="n">
+        <v>8</v>
+      </c>
+      <c r="C354" t="n">
+        <v>22.3767862425718</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B355" t="n">
+        <v>11</v>
+      </c>
+      <c r="C355" t="n">
+        <v>24.0925750466205</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B356" t="n">
+        <v>12</v>
+      </c>
+      <c r="C356" t="n">
+        <v>25.3358382062573</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B357" t="n">
+        <v>7</v>
+      </c>
+      <c r="C357" t="n">
+        <v>23.3132201804494</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B358" t="n">
+        <v>8</v>
+      </c>
+      <c r="C358" t="n">
+        <v>22.7736268701904</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B359" t="n">
+        <v>9</v>
+      </c>
+      <c r="C359" t="n">
+        <v>23.2815114728197</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B360" t="n">
+        <v>10</v>
+      </c>
+      <c r="C360" t="n">
+        <v>23.6523601751467</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B361" t="n">
+        <v>11</v>
+      </c>
+      <c r="C361" t="n">
+        <v>23.8635503907174</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B362" t="n">
+        <v>12</v>
+      </c>
+      <c r="C362" t="n">
+        <v>25.2125023067331</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+      <c r="C363" t="n">
+        <v>27.1457850053009</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>28.5516491612716</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B365" t="n">
+        <v>3</v>
+      </c>
+      <c r="C365" t="n">
+        <v>28.4285279078263</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B366" t="n">
+        <v>4</v>
+      </c>
+      <c r="C366" t="n">
+        <v>27.4753932188039</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B367" t="n">
+        <v>5</v>
+      </c>
+      <c r="C367" t="n">
+        <v>26.5987314105594</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B368" t="n">
+        <v>6</v>
+      </c>
+      <c r="C368" t="n">
+        <v>25.3386445717561</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B369" t="n">
+        <v>7</v>
+      </c>
+      <c r="C369" t="n">
+        <v>24.1422811211571</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B370" t="n">
+        <v>8</v>
+      </c>
+      <c r="C370" t="n">
+        <v>23.5659418200471</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B371" t="n">
+        <v>9</v>
+      </c>
+      <c r="C371" t="n">
+        <v>24.6789150522398</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B372" t="n">
+        <v>10</v>
+      </c>
+      <c r="C372" t="n">
+        <v>25.0216566039258</v>
       </c>
     </row>
   </sheetData>
